--- a/סיווג אותיות.xlsx
+++ b/סיווג אותיות.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\necha\Desktop\Letter progect\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1750A81-D634-4F7B-B9E5-C5ACE529991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E38ED595-894C-4458-9680-D678938FC4EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>a</t>
-  </si>
-  <si>
-    <t>family man, secreteve</t>
   </si>
   <si>
     <t>inaccuracy and chattiness</t>
@@ -38,15 +35,43 @@
   <si>
     <t>reserved behavior</t>
   </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Top-opening A implies inaccuracy and chattiness</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Narrow a associated with secrecy and reserved behavior.</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF404040"/>
+      <name val="Muli"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,14 +94,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -354,19 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.08203125" customWidth="1"/>
-    <col min="3" max="3" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="2.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="1.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.4140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>1</v>
       </c>
@@ -374,10 +405,14 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>2</v>
       </c>
@@ -385,10 +420,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>3</v>
       </c>
@@ -396,315 +437,338 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1">
       <c r="A26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1">
       <c r="A27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1">
       <c r="A28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1">
       <c r="A29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1">
       <c r="A30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1">
       <c r="A34">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1">
       <c r="A35">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1">
       <c r="A36">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1">
       <c r="A37">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1">
       <c r="A38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1">
       <c r="A39">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1">
       <c r="A40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1">
       <c r="A41">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1">
       <c r="A42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1">
       <c r="A43">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1">
       <c r="A44">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1">
       <c r="A45">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1">
       <c r="A46">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1">
       <c r="A47">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1">
       <c r="A48">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1">
       <c r="A49">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1">
       <c r="A50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1">
       <c r="A51">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1">
       <c r="A52">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1">
       <c r="A53">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1">
       <c r="A54">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1">
       <c r="A55">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1">
       <c r="A56">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1">
       <c r="A57">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1">
       <c r="A58">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1">
       <c r="A59">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1">
       <c r="A60">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1">
       <c r="A61">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1">
       <c r="A62">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1">
       <c r="A63">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1">
       <c r="A64">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E1" r:id="rId1" xr:uid="{45AF58B7-E9EC-4A0E-8F82-472BEFCE7E5F}"/>
+    <hyperlink ref="E2:E3" r:id="rId2" display="link" xr:uid="{67541625-9524-4DBC-81BD-A3B91F052EA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>